--- a/biology/Botanique/Jardin_des_Terroirs/Jardin_des_Terroirs.xlsx
+++ b/biology/Botanique/Jardin_des_Terroirs/Jardin_des_Terroirs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin des Terroirs est un espace vert du 12e arrondissement de Paris 
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin se situe sur le parvis de la gare de Paris-Bercy-Bourgogne-Pays d'Auvergne.
 Le site est desservi par les lignes de métro 6 et 14 à la station Bercy.
@@ -544,10 +558,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site a été aménagé dans le cadre de la réorganisation des abords de la gare de Paris-Bercy-Bourgogne-Pays d'Auvergne.
-Il est exploité par SNCF Gares &amp; Connexions[1].
+Il est exploité par SNCF Gares &amp; Connexions.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est ouvert 24 h sur 24. 
 Le cadre de ce jardin est particulièrement apprécié par les voyageurs dans l'attente de leur train.
@@ -608,7 +626,9 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin se situe à proximité du palais omnisports de Paris-Bercy et du parc de Bercy.
 </t>
